--- a/samples/SA-عينة-متاجر-العطور-preview.xlsx
+++ b/samples/SA-عينة-متاجر-العطور-preview.xlsx
@@ -2462,8 +2462,7 @@
     <t>يقدم متجر خلخا...</t>
   </si>
   <si>
-    <t>متجر ريحانة
-طا...</t>
+    <t>متجر ريحانة طا...</t>
   </si>
   <si>
     <t>للبخور ودهن ال...</t>
